--- a/prj/fermentabot/FMT201/Fermentabot Spending Log (mechanical engineerin only).xlsx
+++ b/prj/fermentabot/FMT201/Fermentabot Spending Log (mechanical engineerin only).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Open AG\Documents\GitHub\openag-mechanical\prj\fermentabot\FMT201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072A86E0-DD58-47F6-9269-6782318B4148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E403BFC-60C8-4636-8B9C-CEA245A06A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" xr2:uid="{D8A9642D-5838-441D-ABFF-C6CF5EA92AA3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">PO </t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>TOTAL BUDGET SPENT ON FERMENTABOT:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
   </si>
 </sst>
 </file>
@@ -218,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -246,6 +261,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -561,16 +588,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186D614-A980-463B-AE6D-594FF3F2BDC3}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.35">
@@ -729,7 +760,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,7 +770,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +780,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,7 +790,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -769,13 +800,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -786,7 +817,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
@@ -794,7 +825,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
@@ -803,7 +834,7 @@
         <v>5610</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
@@ -812,7 +843,1520 @@
         <v>7770.93</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="H28" s="14">
+        <v>43516.743055555555</v>
+      </c>
+      <c r="I28" s="11">
+        <v>28.4651</v>
+      </c>
+      <c r="J28" s="11">
+        <v>51.2166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="14">
+        <v>43516.75</v>
+      </c>
+      <c r="I29" s="11">
+        <v>23.864000000000001</v>
+      </c>
+      <c r="J29" s="11">
+        <v>34.370899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F30" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="H30" s="14">
+        <v>43516.756944444445</v>
+      </c>
+      <c r="I30" s="11">
+        <v>22.662800000000001</v>
+      </c>
+      <c r="J30" s="11">
+        <v>30.502800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F31" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="H31" s="14">
+        <v>43516.763888888891</v>
+      </c>
+      <c r="I31" s="11">
+        <v>22.233799999999999</v>
+      </c>
+      <c r="J31" s="11">
+        <v>28.481000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F32" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H32" s="14">
+        <v>43516.770833333336</v>
+      </c>
+      <c r="I32" s="11">
+        <v>26.266500000000001</v>
+      </c>
+      <c r="J32" s="11">
+        <v>88.234499999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F33" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H33" s="14">
+        <v>43516.777777777781</v>
+      </c>
+      <c r="I33" s="11">
+        <v>29.280200000000001</v>
+      </c>
+      <c r="J33" s="11">
+        <v>90.057900000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F34" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="H34" s="14">
+        <v>43516.784722222219</v>
+      </c>
+      <c r="I34" s="11">
+        <v>30.8568</v>
+      </c>
+      <c r="J34" s="11">
+        <v>90.698800000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F35" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H35" s="14">
+        <v>43516.791666666664</v>
+      </c>
+      <c r="I35" s="11">
+        <v>31.607600000000001</v>
+      </c>
+      <c r="J35" s="11">
+        <v>88.547300000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F36" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="H36" s="14">
+        <v>43516.798611111109</v>
+      </c>
+      <c r="I36" s="11">
+        <v>31.7363</v>
+      </c>
+      <c r="J36" s="11">
+        <v>89.554400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F37" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="H37" s="14">
+        <v>43516.805555555555</v>
+      </c>
+      <c r="I37" s="11">
+        <v>31.843499999999999</v>
+      </c>
+      <c r="J37" s="11">
+        <v>89.714600000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F38" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="H38" s="14">
+        <v>43516.8125</v>
+      </c>
+      <c r="I38" s="11">
+        <v>31.779199999999999</v>
+      </c>
+      <c r="J38" s="11">
+        <v>89.874799999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F39" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="H39" s="14">
+        <v>43516.819444444445</v>
+      </c>
+      <c r="I39" s="11">
+        <v>31.811299999999999</v>
+      </c>
+      <c r="J39" s="11">
+        <v>89.310199999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F40" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="H40" s="14">
+        <v>43516.826388888891</v>
+      </c>
+      <c r="I40" s="11">
+        <v>31.779199999999999</v>
+      </c>
+      <c r="J40" s="11">
+        <v>89.455200000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F41" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H41" s="14">
+        <v>43516.833333333336</v>
+      </c>
+      <c r="I41" s="11">
+        <v>31.221499999999999</v>
+      </c>
+      <c r="J41" s="11">
+        <v>79.140199999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F42" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="H42" s="14">
+        <v>43516.840277777781</v>
+      </c>
+      <c r="I42" s="11">
+        <v>31.532499999999999</v>
+      </c>
+      <c r="J42" s="11">
+        <v>87.998000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F43" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="H43" s="14">
+        <v>43516.847222222219</v>
+      </c>
+      <c r="I43" s="11">
+        <v>31.961500000000001</v>
+      </c>
+      <c r="J43" s="11">
+        <v>87.852999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F44" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H44" s="14">
+        <v>43516.854166666664</v>
+      </c>
+      <c r="I44" s="11">
+        <v>32.0473</v>
+      </c>
+      <c r="J44" s="11">
+        <v>90.0274</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F45" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="H45" s="14">
+        <v>43516.861111111109</v>
+      </c>
+      <c r="I45" s="11">
+        <v>31.918600000000001</v>
+      </c>
+      <c r="J45" s="11">
+        <v>89.455200000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F46" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="H46" s="14">
+        <v>43516.868055555555</v>
+      </c>
+      <c r="I46" s="11">
+        <v>31.950800000000001</v>
+      </c>
+      <c r="J46" s="11">
+        <v>89.745099999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F47" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="H47" s="14">
+        <v>43516.875</v>
+      </c>
+      <c r="I47" s="11">
+        <v>31.907900000000001</v>
+      </c>
+      <c r="J47" s="11">
+        <v>91.080200000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F48" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="H48" s="14">
+        <v>43516.881944444445</v>
+      </c>
+      <c r="I48" s="11">
+        <v>31.800599999999999</v>
+      </c>
+      <c r="J48" s="11">
+        <v>89.745099999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F49" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H49" s="14">
+        <v>43516.888888888891</v>
+      </c>
+      <c r="I49" s="11">
+        <v>31.897099999999998</v>
+      </c>
+      <c r="J49" s="11">
+        <v>90.935299999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F50" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H50" s="14">
+        <v>43516.895833333336</v>
+      </c>
+      <c r="I50" s="11">
+        <v>31.832799999999999</v>
+      </c>
+      <c r="J50" s="11">
+        <v>91.225200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F51" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="H51" s="14">
+        <v>43516.902777777781</v>
+      </c>
+      <c r="I51" s="11">
+        <v>31.7684</v>
+      </c>
+      <c r="J51" s="11">
+        <v>90.042599999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F52" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="H52" s="14">
+        <v>43516.909722222219</v>
+      </c>
+      <c r="I52" s="11">
+        <v>31.864999999999998</v>
+      </c>
+      <c r="J52" s="11">
+        <v>91.309100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F53" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H53" s="14">
+        <v>43516.916666666664</v>
+      </c>
+      <c r="I53" s="11">
+        <v>31.822099999999999</v>
+      </c>
+      <c r="J53" s="11">
+        <v>91.309100000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F54" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="H54" s="14">
+        <v>43516.923611111109</v>
+      </c>
+      <c r="I54" s="11">
+        <v>31.747</v>
+      </c>
+      <c r="J54" s="11">
+        <v>90.332599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F55" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="H55" s="14">
+        <v>43516.930555555555</v>
+      </c>
+      <c r="I55" s="11">
+        <v>31.843499999999999</v>
+      </c>
+      <c r="J55" s="11">
+        <v>91.454099999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F56" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="H56" s="14">
+        <v>43516.9375</v>
+      </c>
+      <c r="I56" s="11">
+        <v>31.800599999999999</v>
+      </c>
+      <c r="J56" s="11">
+        <v>91.805000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F57" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="H57" s="14">
+        <v>43516.944444444445</v>
+      </c>
+      <c r="I57" s="11">
+        <v>31.747</v>
+      </c>
+      <c r="J57" s="11">
+        <v>90.454599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F58" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H58" s="14">
+        <v>43516.951388888891</v>
+      </c>
+      <c r="I58" s="11">
+        <v>31.843499999999999</v>
+      </c>
+      <c r="J58" s="11">
+        <v>91.431200000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F59" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H59" s="14">
+        <v>43516.958333333336</v>
+      </c>
+      <c r="I59" s="11">
+        <v>31.800599999999999</v>
+      </c>
+      <c r="J59" s="11">
+        <v>92.094899999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F60" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="H60" s="14">
+        <v>43516.965277777781</v>
+      </c>
+      <c r="I60" s="11">
+        <v>31.747</v>
+      </c>
+      <c r="J60" s="11">
+        <v>90.767399999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F61" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="H61" s="14">
+        <v>43516.972222222219</v>
+      </c>
+      <c r="I61" s="11">
+        <v>31.864999999999998</v>
+      </c>
+      <c r="J61" s="11">
+        <v>92.293300000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F62" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H62" s="14">
+        <v>43516.979166666664</v>
+      </c>
+      <c r="I62" s="11">
+        <v>31.7577</v>
+      </c>
+      <c r="J62" s="11">
+        <v>91.728700000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F63" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="H63" s="14">
+        <v>43516.986111111109</v>
+      </c>
+      <c r="I63" s="11">
+        <v>31.7255</v>
+      </c>
+      <c r="J63" s="11">
+        <v>90.683499999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F64" s="12">
+        <v>43516</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H64" s="14">
+        <v>43516.993055555555</v>
+      </c>
+      <c r="I64" s="11">
+        <v>31.832799999999999</v>
+      </c>
+      <c r="J64" s="11">
+        <v>92.590900000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F65" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>43517</v>
+      </c>
+      <c r="I65" s="11">
+        <v>31.7148</v>
+      </c>
+      <c r="J65" s="11">
+        <v>91.202299999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F66" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G66" s="13">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H66" s="14">
+        <v>43517.006944444445</v>
+      </c>
+      <c r="I66" s="11">
+        <v>31.747</v>
+      </c>
+      <c r="J66" s="11">
+        <v>90.828500000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F67" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H67" s="14">
+        <v>43517.013888888891</v>
+      </c>
+      <c r="I67" s="11">
+        <v>31.822099999999999</v>
+      </c>
+      <c r="J67" s="11">
+        <v>92.590900000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F68" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H68" s="14">
+        <v>43517.020833333336</v>
+      </c>
+      <c r="I68" s="11">
+        <v>31.6934</v>
+      </c>
+      <c r="J68" s="11">
+        <v>91.347300000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F69" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H69" s="14">
+        <v>43517.027777777781</v>
+      </c>
+      <c r="I69" s="11">
+        <v>31.779199999999999</v>
+      </c>
+      <c r="J69" s="11">
+        <v>91.202299999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F70" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G70" s="13">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H70" s="14">
+        <v>43517.034722222219</v>
+      </c>
+      <c r="I70" s="11">
+        <v>31.822099999999999</v>
+      </c>
+      <c r="J70" s="11">
+        <v>92.705299999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F71" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G71" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H71" s="14">
+        <v>43517.041666666664</v>
+      </c>
+      <c r="I71" s="11">
+        <v>31.682600000000001</v>
+      </c>
+      <c r="J71" s="11">
+        <v>91.461699999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F72" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G72" s="13">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="H72" s="14">
+        <v>43517.048611111109</v>
+      </c>
+      <c r="I72" s="11">
+        <v>31.779199999999999</v>
+      </c>
+      <c r="J72" s="11">
+        <v>91.4846</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F73" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G73" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H73" s="14">
+        <v>43517.055555555555</v>
+      </c>
+      <c r="I73" s="11">
+        <v>31.779199999999999</v>
+      </c>
+      <c r="J73" s="11">
+        <v>92.186499999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F74" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G74" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H74" s="14">
+        <v>43517.0625</v>
+      </c>
+      <c r="I74" s="11">
+        <v>31.6934</v>
+      </c>
+      <c r="J74" s="11">
+        <v>90.912400000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F75" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G75" s="13">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="H75" s="14">
+        <v>43517.069444444445</v>
+      </c>
+      <c r="I75" s="11">
+        <v>31.864999999999998</v>
+      </c>
+      <c r="J75" s="11">
+        <v>92.094899999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F76" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G76" s="13">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="H76" s="14">
+        <v>43517.076388888891</v>
+      </c>
+      <c r="I76" s="11">
+        <v>31.822099999999999</v>
+      </c>
+      <c r="J76" s="11">
+        <v>92.468800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F77" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G77" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H77" s="14">
+        <v>43517.083333333336</v>
+      </c>
+      <c r="I77" s="11">
+        <v>31.7363</v>
+      </c>
+      <c r="J77" s="11">
+        <v>90.713999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F78" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G78" s="13">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="H78" s="14">
+        <v>43517.090277777781</v>
+      </c>
+      <c r="I78" s="11">
+        <v>31.875699999999998</v>
+      </c>
+      <c r="J78" s="11">
+        <v>92.590900000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F79" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G79" s="13">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="H79" s="14">
+        <v>43517.097222222219</v>
+      </c>
+      <c r="I79" s="11">
+        <v>31.7148</v>
+      </c>
+      <c r="J79" s="11">
+        <v>91.293899999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F80" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G80" s="13">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H80" s="14">
+        <v>43517.104166666664</v>
+      </c>
+      <c r="I80" s="11">
+        <v>31.629000000000001</v>
+      </c>
+      <c r="J80" s="11">
+        <v>88.013199999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F81" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G81" s="13">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H81" s="14">
+        <v>43517.111111111109</v>
+      </c>
+      <c r="I81" s="11">
+        <v>31.4467</v>
+      </c>
+      <c r="J81" s="11">
+        <v>86.235600000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F82" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G82" s="13">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="H82" s="14">
+        <v>43517.118055555555</v>
+      </c>
+      <c r="I82" s="11">
+        <v>31.4145</v>
+      </c>
+      <c r="J82" s="11">
+        <v>82.161500000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F83" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="H83" s="14">
+        <v>43517.125</v>
+      </c>
+      <c r="I83" s="11">
+        <v>31.553899999999999</v>
+      </c>
+      <c r="J83" s="11">
+        <v>83.366900000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F84" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G84" s="13">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="H84" s="14">
+        <v>43517.131944444445</v>
+      </c>
+      <c r="I84" s="11">
+        <v>31.6934</v>
+      </c>
+      <c r="J84" s="11">
+        <v>81.932599999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F85" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G85" s="13">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H85" s="14">
+        <v>43517.138888888891</v>
+      </c>
+      <c r="I85" s="11">
+        <v>31.800599999999999</v>
+      </c>
+      <c r="J85" s="11">
+        <v>82.092799999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F86" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="H86" s="14">
+        <v>43517.145833333336</v>
+      </c>
+      <c r="I86" s="11">
+        <v>31.596800000000002</v>
+      </c>
+      <c r="J86" s="11">
+        <v>76.561499999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F87" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="H87" s="14">
+        <v>43517.152777777781</v>
+      </c>
+      <c r="I87" s="11">
+        <v>31.371600000000001</v>
+      </c>
+      <c r="J87" s="11">
+        <v>73.387699999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F88" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G88" s="13">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="H88" s="14">
+        <v>43517.159722222219</v>
+      </c>
+      <c r="I88" s="11">
+        <v>31.296500000000002</v>
+      </c>
+      <c r="J88" s="11">
+        <v>67.429100000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F89" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H89" s="14">
+        <v>43517.166666666664</v>
+      </c>
+      <c r="I89" s="11">
+        <v>31.1571</v>
+      </c>
+      <c r="J89" s="11">
+        <v>62.1267</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F90" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G90" s="13">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="H90" s="14">
+        <v>43517.173611111109</v>
+      </c>
+      <c r="I90" s="11">
+        <v>31.264399999999998</v>
+      </c>
+      <c r="J90" s="11">
+        <v>58.426400000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F91" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G91" s="13">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="H91" s="14">
+        <v>43517.180555555555</v>
+      </c>
+      <c r="I91" s="11">
+        <v>31.3931</v>
+      </c>
+      <c r="J91" s="11">
+        <v>53.314700000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F92" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G92" s="13">
+        <v>0.1875</v>
+      </c>
+      <c r="H92" s="14">
+        <v>43517.1875</v>
+      </c>
+      <c r="I92" s="11">
+        <v>31.4574</v>
+      </c>
+      <c r="J92" s="11">
+        <v>48.203000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F93" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G93" s="13">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="H93" s="14">
+        <v>43517.194444444445</v>
+      </c>
+      <c r="I93" s="11">
+        <v>31.4681</v>
+      </c>
+      <c r="J93" s="11">
+        <v>43.564399999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F94" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G94" s="13">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="H94" s="14">
+        <v>43517.201388888891</v>
+      </c>
+      <c r="I94" s="11">
+        <v>31.4681</v>
+      </c>
+      <c r="J94" s="11">
+        <v>39.162199999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F95" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H95" s="14">
+        <v>43517.208333333336</v>
+      </c>
+      <c r="I95" s="11">
+        <v>31.510999999999999</v>
+      </c>
+      <c r="J95" s="11">
+        <v>36.118099999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F96" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G96" s="13">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H96" s="14">
+        <v>43517.215277777781</v>
+      </c>
+      <c r="I96" s="11">
+        <v>31.543199999999999</v>
+      </c>
+      <c r="J96" s="11">
+        <v>33.691899999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F97" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G97" s="13">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H97" s="14">
+        <v>43517.222222222219</v>
+      </c>
+      <c r="I97" s="11">
+        <v>31.607600000000001</v>
+      </c>
+      <c r="J97" s="11">
+        <v>31.525200000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F98" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="H98" s="14">
+        <v>43517.229166666664</v>
+      </c>
+      <c r="I98" s="11">
+        <v>31.6934</v>
+      </c>
+      <c r="J98" s="11">
+        <v>29.533899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F99" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G99" s="13">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="H99" s="14">
+        <v>43517.236111111109</v>
+      </c>
+      <c r="I99" s="11">
+        <v>31.789899999999999</v>
+      </c>
+      <c r="J99" s="11">
+        <v>27.863099999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F100" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H100" s="14">
+        <v>43517.243055555555</v>
+      </c>
+      <c r="I100" s="11">
+        <v>31.897099999999998</v>
+      </c>
+      <c r="J100" s="11">
+        <v>26.337199999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F101" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H101" s="14">
+        <v>43517.25</v>
+      </c>
+      <c r="I101" s="11">
+        <v>31.972200000000001</v>
+      </c>
+      <c r="J101" s="11">
+        <v>25.101199999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F102" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G102" s="13">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="H102" s="14">
+        <v>43517.256944444445</v>
+      </c>
+      <c r="I102" s="11">
+        <v>32.0366</v>
+      </c>
+      <c r="J102" s="11">
+        <v>23.979700000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F103" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G103" s="13">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="H103" s="14">
+        <v>43517.263888888891</v>
+      </c>
+      <c r="I103" s="11">
+        <v>32.090200000000003</v>
+      </c>
+      <c r="J103" s="11">
+        <v>23.0565</v>
+      </c>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F104" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G104" s="13">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H104" s="14">
+        <v>43517.270833333336</v>
+      </c>
+      <c r="I104" s="11">
+        <v>32.122399999999999</v>
+      </c>
+      <c r="J104" s="11">
+        <v>22.140999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F105" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G105" s="13">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H105" s="14">
+        <v>43517.277777777781</v>
+      </c>
+      <c r="I105" s="11">
+        <v>32.143799999999999</v>
+      </c>
+      <c r="J105" s="11">
+        <v>21.3781</v>
+      </c>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F106" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G106" s="13">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H106" s="14">
+        <v>43517.284722222219</v>
+      </c>
+      <c r="I106" s="11">
+        <v>32.154499999999999</v>
+      </c>
+      <c r="J106" s="11">
+        <v>20.737200000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F107" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G107" s="13">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H107" s="14">
+        <v>43517.291666666664</v>
+      </c>
+      <c r="I107" s="11">
+        <v>32.154499999999999</v>
+      </c>
+      <c r="J107" s="11">
+        <v>20.248899999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F108" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G108" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H108" s="14">
+        <v>43517.298611111109</v>
+      </c>
+      <c r="I108" s="11">
+        <v>32.143799999999999</v>
+      </c>
+      <c r="J108" s="11">
+        <v>19.8904</v>
+      </c>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F109" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G109" s="13">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H109" s="14">
+        <v>43517.305555555555</v>
+      </c>
+      <c r="I109" s="11">
+        <v>32.111600000000003</v>
+      </c>
+      <c r="J109" s="11">
+        <v>19.516500000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F110" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G110" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="H110" s="14">
+        <v>43517.3125</v>
+      </c>
+      <c r="I110" s="11">
+        <v>32.100900000000003</v>
+      </c>
+      <c r="J110" s="11">
+        <v>19.356300000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F111" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G111" s="13">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="H111" s="14">
+        <v>43517.319444444445</v>
+      </c>
+      <c r="I111" s="11">
+        <v>32.079500000000003</v>
+      </c>
+      <c r="J111" s="11">
+        <v>19.112200000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F112" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G112" s="13">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="H112" s="14">
+        <v>43517.326388888891</v>
+      </c>
+      <c r="I112" s="11">
+        <v>32.0473</v>
+      </c>
+      <c r="J112" s="11">
+        <v>19.112200000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F113" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G113" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H113" s="14">
+        <v>43517.333333333336</v>
+      </c>
+      <c r="I113" s="11">
+        <v>32.0366</v>
+      </c>
+      <c r="J113" s="11">
+        <v>19.074000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F114" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G114" s="13">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H114" s="14">
+        <v>43517.340277777781</v>
+      </c>
+      <c r="I114" s="11">
+        <v>32.0473</v>
+      </c>
+      <c r="J114" s="11">
+        <v>19.074000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F115" s="12">
+        <v>43517</v>
+      </c>
+      <c r="G115" s="13">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H115" s="14">
+        <v>43517.347222222219</v>
+      </c>
+      <c r="I115" s="11">
+        <v>31.961500000000001</v>
+      </c>
+      <c r="J115" s="11">
+        <v>33.188400000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
